--- a/2019公交线路评价排行榜.xlsx
+++ b/2019公交线路评价排行榜.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JER\Desktop\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JER\Evaluation-of-public-transport-network-in-Beijing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8A5FB9-F06C-42BD-B249-872FFF87332E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD50BA13-DCD8-45FE-9788-ACEE4FF88584}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1890" yWindow="4050" windowWidth="20730" windowHeight="11160" xr2:uid="{6EFCEBE0-A3EC-4D55-8CF4-7B9C0A2A08E1}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:L1631"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K8" sqref="K7:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,6 +579,9 @@
       <c r="K2" s="2">
         <v>1.3481759393666</v>
       </c>
+      <c r="L2" s="4">
+        <v>123</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
